--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/szabo.mark/Documents/Faculta/sem2/vvs/SSVV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55660EA1-A4AA-F943-950E-41878DFB839E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC3BC96-256E-764A-8411-2248CB720603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="2920" windowWidth="28040" windowHeight="17440" xr2:uid="{F6E1F3BE-ADF0-1A4B-A3E1-185B822F8877}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19620" xr2:uid="{F6E1F3BE-ADF0-1A4B-A3E1-185B822F8877}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>EC</t>
   </si>
@@ -50,9 +50,6 @@
     <t>invalid ec</t>
   </si>
   <si>
-    <t>110 &lt;= group &lt;= 938</t>
-  </si>
-  <si>
     <t>group &lt; 110</t>
   </si>
   <si>
@@ -95,30 +92,9 @@
     <t>Output</t>
   </si>
   <si>
-    <t>group=120</t>
-  </si>
-  <si>
-    <t>group=109</t>
-  </si>
-  <si>
-    <t>group=939</t>
-  </si>
-  <si>
-    <t>id = "id"</t>
-  </si>
-  <si>
-    <t>4, 6</t>
-  </si>
-  <si>
     <t>id=""</t>
   </si>
   <si>
-    <t>8, 10</t>
-  </si>
-  <si>
-    <t>name = "name"</t>
-  </si>
-  <si>
     <t>name = NULL</t>
   </si>
   <si>
@@ -165,6 +141,21 @@
   </si>
   <si>
     <t>len(id)=-1 (id = NULL)</t>
+  </si>
+  <si>
+    <t>group=120, id="id", name="name"</t>
+  </si>
+  <si>
+    <t>1,4,6,8,10</t>
+  </si>
+  <si>
+    <t>group=936</t>
+  </si>
+  <si>
+    <t>group=112</t>
+  </si>
+  <si>
+    <t>110 &lt; group &lt; 938</t>
   </si>
 </sst>
 </file>
@@ -200,8 +191,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA4B2C80-D505-EA42-B8E9-5E7344299CA6}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -536,7 +528,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -553,10 +545,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -564,7 +556,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -572,7 +564,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -580,10 +572,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -591,7 +583,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -599,10 +591,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -610,7 +602,7 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -618,10 +610,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -629,7 +621,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -637,10 +629,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -648,37 +640,37 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>17</v>
-      </c>
-      <c r="D17" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
-      <c r="B18">
-        <v>1</v>
+      <c r="B18" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -688,11 +680,11 @@
       <c r="A19">
         <v>2</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -702,11 +694,11 @@
       <c r="A20">
         <v>3</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -716,25 +708,25 @@
       <c r="A21">
         <v>4</v>
       </c>
-      <c r="B21" t="s">
-        <v>23</v>
+      <c r="B21" s="1">
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5</v>
       </c>
-      <c r="B22">
-        <v>5</v>
+      <c r="B22" s="1">
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -744,11 +736,11 @@
       <c r="A23">
         <v>6</v>
       </c>
-      <c r="B23">
-        <v>7</v>
+      <c r="B23" s="1">
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -758,168 +750,173 @@
       <c r="A24">
         <v>7</v>
       </c>
-      <c r="B24" t="s">
-        <v>25</v>
+      <c r="B24" s="1">
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>8</v>
-      </c>
-      <c r="B25">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>9</v>
-      </c>
-      <c r="B26">
-        <v>11</v>
-      </c>
-      <c r="C26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>30</v>
+      <c r="A30">
+        <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>4</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
         <v>31</v>
       </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
+      <c r="C38" t="s">
         <v>32</v>
       </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>12</v>
+      </c>
+      <c r="C40" t="s">
         <v>33</v>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C39" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" t="s">
-        <v>40</v>
-      </c>
       <c r="D40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C41" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C42" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42">
         <v>1</v>
       </c>
     </row>
